--- a/33/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/33/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>66558</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Kuhn, Ernser and Schumm</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://colossal-cellar.biz</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/33/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/33/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -432,13 +432,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>66558</v>
+        <v>317031</v>
       </c>
       <c r="B3" t="str">
-        <v>Kuhn, Ernser and Schumm</v>
+        <v>Douglas, McKenzie and Becker</v>
       </c>
       <c r="C3" t="str">
-        <v>https://colossal-cellar.biz</v>
+        <v>https://old-fashioned-accompanist.name/</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
